--- a/uploads/Canon_VALON BABY_eco_report.xlsx
+++ b/uploads/Canon_VALON BABY_eco_report.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>11.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>11.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.00</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>14.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>73.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>73.00</t>
+          <t>35.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
